--- a/output/result_compare.xlsx
+++ b/output/result_compare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,914 +447,738 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5705760717391968</v>
+        <v>0.585665225982666</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5600624084472656</v>
+        <v>0.801970899105072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6540765762329102</v>
+        <v>0.4767564535140991</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6487370729446411</v>
+        <v>0.6743302345275879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05524187535047531</v>
+        <v>0.5581954717636108</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03047242760658264</v>
+        <v>0.9406401515007019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5221167802810669</v>
+        <v>0.1855329424142838</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5171651244163513</v>
+        <v>0.176712229847908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9488294124603271</v>
+        <v>0.5723381638526917</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9371679425239563</v>
+        <v>0.7219762206077576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1642940491437912</v>
+        <v>0.3057208061218262</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1771653294563293</v>
+        <v>0.8616679310798645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8223065137863159</v>
+        <v>0.404697060585022</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8234065771102905</v>
+        <v>0.7900826334953308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5707430243492126</v>
+        <v>0.7117936015129089</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6049865484237671</v>
+        <v>0.03953956440091133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1307052373886108</v>
+        <v>0.6170248985290527</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1098910272121429</v>
+        <v>0.9247552156448364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4858908653259277</v>
+        <v>0.5339148640632629</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5004550814628601</v>
+        <v>0.1008553057909012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5376724004745483</v>
+        <v>0.4150913953781128</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5374240279197693</v>
+        <v>0.536221444606781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5194324851036072</v>
+        <v>0.1961283981800079</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5137423276901245</v>
+        <v>0.01961331628262997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8841662406921387</v>
+        <v>0.4081318378448486</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9054124355316162</v>
+        <v>0.9018300771713257</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2611724138259888</v>
+        <v>0.3184551000595093</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2734183967113495</v>
+        <v>0.5647726058959961</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3152105510234833</v>
+        <v>0.5658172965049744</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3189761340618134</v>
+        <v>0.7920408248901367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1417184621095657</v>
+        <v>1.059702634811401</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1092855930328369</v>
+        <v>0.5977046489715576</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3469626307487488</v>
+        <v>0.4862553477287292</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3364903926849365</v>
+        <v>0.8177609443664551</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1119977235794067</v>
+        <v>0.5829782485961914</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08957958221435547</v>
+        <v>0.5127053260803223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.597680926322937</v>
+        <v>0.7277584075927734</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5883342027664185</v>
+        <v>0.1813561171293259</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3399949371814728</v>
+        <v>0.2710367739200592</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3658002018928528</v>
+        <v>0.8790071606636047</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9408068656921387</v>
+        <v>0.7598354816436768</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9343051910400391</v>
+        <v>0.2957460284233093</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0956735759973526</v>
+        <v>0.582268238067627</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05880182608962059</v>
+        <v>0.66957688331604</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2159209847450256</v>
+        <v>0.3844533562660217</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2169993966817856</v>
+        <v>0.9635701775550842</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8580646514892578</v>
+        <v>0.6065757274627686</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9037090539932251</v>
+        <v>0.59906405210495</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8517708778381348</v>
+        <v>0.5038976073265076</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8869816660881042</v>
+        <v>0.2189649194478989</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2041842043399811</v>
+        <v>0.1650678217411041</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2114220410585403</v>
+        <v>0.7450634241104126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7831246852874756</v>
+        <v>0.646454930305481</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7834746241569519</v>
+        <v>0.984636127948761</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.6840028762817383</v>
+        <v>0.3459569811820984</v>
       </c>
       <c r="B29" t="n">
-        <v>0.722136914730072</v>
+        <v>0.3658878207206726</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.3419448137283325</v>
+        <v>0.4664915204048157</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3731620907783508</v>
+        <v>0.6970440149307251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1186052411794662</v>
+        <v>0.458095908164978</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1230535209178925</v>
+        <v>0.1508093923330307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8170887231826782</v>
+        <v>0.1729855686426163</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8282687664031982</v>
+        <v>0.4597446024417877</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3382035493850708</v>
+        <v>0.7359248399734497</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3586774170398712</v>
+        <v>0.3284711837768555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.6897952556610107</v>
+        <v>0.4103928804397583</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7050562500953674</v>
+        <v>0.8514900803565979</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.246825098991394</v>
+        <v>0.3745259642601013</v>
       </c>
       <c r="B35" t="n">
-        <v>0.252660721540451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.3668591380119324</v>
+        <v>0.2499801367521286</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3743203580379486</v>
+        <v>0.3677568137645721</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.3786717653274536</v>
+        <v>0.5826741456985474</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3797792196273804</v>
+        <v>0.9404580593109131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2587317824363708</v>
+        <v>0.4431697130203247</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2568409442901611</v>
+        <v>0.7748333811759949</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1131128147244453</v>
+        <v>0.4123249053955078</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0779740959405899</v>
+        <v>0.3319169878959656</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7624852657318115</v>
+        <v>0.5820319056510925</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7615882158279419</v>
+        <v>0.7096430659294128</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1085434406995773</v>
+        <v>0.3946079611778259</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07881306856870651</v>
+        <v>0.3771403729915619</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.07751565426588058</v>
+        <v>0.428200364112854</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08765743672847748</v>
+        <v>0.3173849284648895</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2522784173488617</v>
+        <v>0.4039574265480042</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2649221420288086</v>
+        <v>0.9093399047851562</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7632730007171631</v>
+        <v>0.5013989210128784</v>
       </c>
       <c r="B44" t="n">
-        <v>0.811029314994812</v>
+        <v>0.213174432516098</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5497651100158691</v>
+        <v>0.3507707715034485</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5475718975067139</v>
+        <v>0.8636987805366516</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1937884539365768</v>
+        <v>0.3077419102191925</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1845108419656754</v>
+        <v>0.6700479388237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.3365606069564819</v>
+        <v>0.3380338251590729</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3413881957530975</v>
+        <v>0.2701847553253174</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.7805697917938232</v>
+        <v>0.4858648180961609</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7862305045127869</v>
+        <v>0.5043156743049622</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.6535043716430664</v>
+        <v>0.493876576423645</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6610305309295654</v>
+        <v>0.1878260672092438</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.6087381839752197</v>
+        <v>0.5498052835464478</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6164717078208923</v>
+        <v>0.1768202632665634</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.6575857400894165</v>
+        <v>0.5782245397567749</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6749895215034485</v>
+        <v>0.1456021964550018</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.911920428276062</v>
+        <v>0.2021307498216629</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9399192333221436</v>
+        <v>0.1562634259462357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7574135065078735</v>
+        <v>0.7443312406539917</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7846664190292358</v>
+        <v>0.9618009328842163</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.5797972679138184</v>
+        <v>0.607903003692627</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5870010852813721</v>
+        <v>0.9987602829933167</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8949373960494995</v>
+        <v>0.5741435289382935</v>
       </c>
       <c r="B55" t="n">
-        <v>0.925987184047699</v>
+        <v>0.8297478556632996</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.2992118299007416</v>
+        <v>0.4293756484985352</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3073814809322357</v>
+        <v>0.6100310683250427</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.07351469993591309</v>
+        <v>0.5283493399620056</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03945345059037209</v>
+        <v>0.6974750161170959</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.7535804510116577</v>
+        <v>0.381568968296051</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7518234848976135</v>
+        <v>0.4266695082187653</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4990228414535522</v>
+        <v>0.6393828392028809</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5104155540466309</v>
+        <v>0.9074425101280212</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1192184090614319</v>
+        <v>0.6582844257354736</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1176024824380875</v>
+        <v>0.6788134574890137</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5048002004623413</v>
+        <v>0.4385448098182678</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4986805319786072</v>
+        <v>0.348524808883667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8316711187362671</v>
+        <v>0.3990033268928528</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8531371355056763</v>
+        <v>0.7894863486289978</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4012978076934814</v>
+        <v>0.2884591221809387</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4347930550575256</v>
+        <v>0.8645215630531311</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1156558617949486</v>
+        <v>0.403933048248291</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1347615718841553</v>
+        <v>0.3998368680477142</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8069813251495361</v>
+        <v>0.4494215250015259</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8261972069740295</v>
+        <v>0.9825317859649658</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1226902157068253</v>
+        <v>0.2976477742195129</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1425128728151321</v>
+        <v>0.7027052044868469</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.3433473706245422</v>
+        <v>0.539909303188324</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3210122883319855</v>
+        <v>0.6080434322357178</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.668900728225708</v>
+        <v>0.4157291650772095</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6819680333137512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.7978898286819458</v>
+        <v>0.6416642665863037</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8051747679710388</v>
+        <v>0.17356938123703</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.2861818075180054</v>
+        <v>0.3101122379302979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2841881215572357</v>
+        <v>0.8996821045875549</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5515217781066895</v>
+        <v>0.2496068328619003</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5551245808601379</v>
+        <v>0.476416140794754</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5506235361099243</v>
+        <v>0.4373189210891724</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5699132084846497</v>
+        <v>0.8213620185852051</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.3802100419998169</v>
+        <v>0.4814015626907349</v>
       </c>
       <c r="B73" t="n">
-        <v>0.373803585767746</v>
+        <v>0.5821194648742676</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.7505005598068237</v>
+        <v>0.1816960275173187</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7576226592063904</v>
+        <v>0.361377626657486</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1544598042964935</v>
+        <v>0.4493408799171448</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1461136788129807</v>
+        <v>0.8919121623039246</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1310287415981293</v>
+        <v>0.3413809537887573</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1155520156025887</v>
+        <v>0.6904844045639038</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4228250086307526</v>
+        <v>0.439689576625824</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3980891108512878</v>
+        <v>0.6374779939651489</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1605090498924255</v>
+        <v>0.2455264776945114</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1282583475112915</v>
+        <v>0.3024197518825531</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.7513248920440674</v>
+        <v>0.3466960191726685</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7532123923301697</v>
+        <v>0.5394049286842346</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8082826137542725</v>
+        <v>0.5752800703048706</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8160685300827026</v>
+        <v>0.4976161420345306</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3366808891296387</v>
+        <v>0.4281825423240662</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3623321056365967</v>
+        <v>0.1014727652072906</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9005142450332642</v>
+        <v>0.492489755153656</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9312393665313721</v>
+        <v>0.1293090134859085</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.7013775110244751</v>
+        <v>0.6442422866821289</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7381448745727539</v>
+        <v>0.2105742543935776</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2336621582508087</v>
+        <v>0.54170823097229</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2629647850990295</v>
+        <v>0.8955302834510803</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9300217628479004</v>
+        <v>0.6136153936386108</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9791904091835022</v>
+        <v>0.6025004386901855</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7023485898971558</v>
+        <v>0.3008288145065308</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7314147353172302</v>
+        <v>0.304656058549881</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.4862780570983887</v>
+        <v>0.6691831946372986</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5179583430290222</v>
+        <v>0.4483610391616821</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.7148305177688599</v>
+        <v>0.3083878755569458</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7336118817329407</v>
+        <v>0.06484448909759521</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.02090776711702347</v>
+        <v>0.3600806593894958</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02750617824494839</v>
+        <v>0.1355907917022705</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.4363591372966766</v>
+        <v>0.3467115163803101</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4299489855766296</v>
+        <v>0.03208285942673683</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6665191650390625</v>
+        <v>0.556010901927948</v>
       </c>
       <c r="B91" t="n">
-        <v>0.668145477771759</v>
+        <v>0.9095603227615356</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.3040211796760559</v>
+        <v>0.2798587679862976</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3118856549263</v>
+        <v>0.2279436588287354</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.7156685590744019</v>
+        <v>0.4697442650794983</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7235386967658997</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.5066298842430115</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.5143675804138184</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.4214219748973846</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.4094004929065704</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0.4619624316692352</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.4461795389652252</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.1436677277088165</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.1173371747136116</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.1560250371694565</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.1510447859764099</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.8741970062255859</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.9452617764472961</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.692244291305542</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.7326532602310181</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.5005958080291748</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.5244100689888</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>0.8677343130111694</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.8908526301383972</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>0.7946122884750366</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.8238323330879211</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>0.534995973110199</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.5532481670379639</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>0.7734646797180176</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.8036291003227234</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>0.1337264180183411</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.150352731347084</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>0.26149782538414</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.2663173377513885</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>0.9400928020477295</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.9707032442092896</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>0.158855602145195</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.1476360857486725</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>0.5180442333221436</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.51863032579422</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>0.3175085186958313</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.3101788759231567</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>0.6085401773452759</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5891322493553162</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>0.5805761814117432</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5968589782714844</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>0.78138267993927</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.800335705280304</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>0.1511591374874115</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.1685977280139923</v>
+        <v>0.06351520121097565</v>
       </c>
     </row>
   </sheetData>
